--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/65/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/65/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>1.52256</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>1522.56</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
@@ -488,186 +488,186 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>1.71827</v>
+        <v>3.30556</v>
       </c>
       <c r="C5" t="n">
-        <v>1718.27</v>
+        <v>3305.56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.12401</v>
+        <v>0.12397</v>
       </c>
       <c r="B6" t="n">
-        <v>1.88446</v>
+        <v>3.65054</v>
       </c>
       <c r="C6" t="n">
-        <v>1884.46</v>
+        <v>3650.54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.154978</v>
       </c>
       <c r="B7" t="n">
-        <v>2.04588</v>
+        <v>3.83872</v>
       </c>
       <c r="C7" t="n">
-        <v>2045.88</v>
+        <v>3838.72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186017</v>
+        <v>0.185954</v>
       </c>
       <c r="B8" t="n">
-        <v>2.18376</v>
+        <v>3.87547</v>
       </c>
       <c r="C8" t="n">
-        <v>2183.76</v>
+        <v>3875.47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216979</v>
+        <v>0.21693</v>
       </c>
       <c r="B9" t="n">
-        <v>2.29622</v>
+        <v>3.89816</v>
       </c>
       <c r="C9" t="n">
-        <v>2296.22</v>
+        <v>3898.16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247904</v>
+        <v>0.247906</v>
       </c>
       <c r="B10" t="n">
-        <v>2.38289</v>
+        <v>3.91736</v>
       </c>
       <c r="C10" t="n">
-        <v>2382.89</v>
+        <v>3917.36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278829</v>
+        <v>0.278834</v>
       </c>
       <c r="B11" t="n">
-        <v>2.46115</v>
+        <v>3.9336</v>
       </c>
       <c r="C11" t="n">
-        <v>2461.15</v>
+        <v>3933.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309754</v>
+        <v>0.309759</v>
       </c>
       <c r="B12" t="n">
-        <v>2.54299</v>
+        <v>3.94822</v>
       </c>
       <c r="C12" t="n">
-        <v>2542.99</v>
+        <v>3948.22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340679</v>
+        <v>0.340685</v>
       </c>
       <c r="B13" t="n">
-        <v>2.60769</v>
+        <v>3.96302</v>
       </c>
       <c r="C13" t="n">
-        <v>2607.69</v>
+        <v>3963.02</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371604</v>
+        <v>0.37161</v>
       </c>
       <c r="B14" t="n">
-        <v>2.6647</v>
+        <v>3.97632</v>
       </c>
       <c r="C14" t="n">
-        <v>2664.7</v>
+        <v>3976.32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402529</v>
+        <v>0.402535</v>
       </c>
       <c r="B15" t="n">
-        <v>2.71147</v>
+        <v>3.9889</v>
       </c>
       <c r="C15" t="n">
-        <v>2711.47</v>
+        <v>3988.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433454</v>
+        <v>0.433455</v>
       </c>
       <c r="B16" t="n">
-        <v>2.75829</v>
+        <v>4.00112</v>
       </c>
       <c r="C16" t="n">
-        <v>2758.29</v>
+        <v>4001.12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464379</v>
+        <v>0.46438</v>
       </c>
       <c r="B17" t="n">
-        <v>2.79303</v>
+        <v>4.012630000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>2793.03</v>
+        <v>4012.63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495304</v>
+        <v>0.495305</v>
       </c>
       <c r="B18" t="n">
-        <v>2.8295</v>
+        <v>4.02389</v>
       </c>
       <c r="C18" t="n">
-        <v>2829.5</v>
+        <v>4023.89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5262289999999999</v>
+        <v>0.52623</v>
       </c>
       <c r="B19" t="n">
-        <v>2.85761</v>
+        <v>4.03469</v>
       </c>
       <c r="C19" t="n">
-        <v>2857.61</v>
+        <v>4034.69</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557154</v>
+        <v>0.557155</v>
       </c>
       <c r="B20" t="n">
-        <v>2.88548</v>
+        <v>4.04513</v>
       </c>
       <c r="C20" t="n">
-        <v>2885.48</v>
+        <v>4045.13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588079</v>
+        <v>0.58808</v>
       </c>
       <c r="B21" t="n">
-        <v>2.91262</v>
+        <v>4.05522</v>
       </c>
       <c r="C21" t="n">
-        <v>2912.62</v>
+        <v>4055.22</v>
       </c>
     </row>
     <row r="22">
@@ -675,32 +675,32 @@
         <v>0.619122</v>
       </c>
       <c r="B22" t="n">
-        <v>2.9356</v>
+        <v>4.06504</v>
       </c>
       <c r="C22" t="n">
-        <v>2935.6</v>
+        <v>4065.04</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650294</v>
+        <v>0.650299</v>
       </c>
       <c r="B23" t="n">
-        <v>2.95808</v>
+        <v>4.07463</v>
       </c>
       <c r="C23" t="n">
-        <v>2958.08</v>
+        <v>4074.63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681467</v>
+        <v>0.681472</v>
       </c>
       <c r="B24" t="n">
-        <v>2.9807</v>
+        <v>4.0839</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.7</v>
+        <v>4083.9</v>
       </c>
     </row>
     <row r="25">
@@ -708,857 +708,857 @@
         <v>0.7126440000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>3.0018</v>
+        <v>4.09292</v>
       </c>
       <c r="C25" t="n">
-        <v>3001.8</v>
+        <v>4092.92</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743816</v>
+        <v>0.743821</v>
       </c>
       <c r="B26" t="n">
-        <v>3.02106</v>
+        <v>4.10169</v>
       </c>
       <c r="C26" t="n">
-        <v>3021.06</v>
+        <v>4101.69</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.774989</v>
+        <v>0.774994</v>
       </c>
       <c r="B27" t="n">
-        <v>3.03969</v>
+        <v>4.11023</v>
       </c>
       <c r="C27" t="n">
-        <v>3039.69</v>
+        <v>4110.23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806166</v>
+        <v>0.806167</v>
       </c>
       <c r="B28" t="n">
-        <v>3.05831</v>
+        <v>4.11856</v>
       </c>
       <c r="C28" t="n">
-        <v>3058.31</v>
+        <v>4118.56</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837338</v>
+        <v>0.837344</v>
       </c>
       <c r="B29" t="n">
-        <v>3.07651</v>
+        <v>4.12668</v>
       </c>
       <c r="C29" t="n">
-        <v>3076.51</v>
+        <v>4126.68</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868515</v>
+        <v>0.868516</v>
       </c>
       <c r="B30" t="n">
-        <v>3.09399</v>
+        <v>4.134600000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>3093.99</v>
+        <v>4134.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899688</v>
+        <v>0.899689</v>
       </c>
       <c r="B31" t="n">
-        <v>3.11104</v>
+        <v>4.14236</v>
       </c>
       <c r="C31" t="n">
-        <v>3111.04</v>
+        <v>4142.36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93086</v>
+        <v>0.930866</v>
       </c>
       <c r="B32" t="n">
-        <v>3.12785</v>
+        <v>4.14995</v>
       </c>
       <c r="C32" t="n">
-        <v>3127.85</v>
+        <v>4149.95</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962037</v>
+        <v>0.9620379999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>3.14421</v>
+        <v>4.15736</v>
       </c>
       <c r="C33" t="n">
-        <v>3144.21</v>
+        <v>4157.36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.99321</v>
+        <v>0.993215</v>
       </c>
       <c r="B34" t="n">
-        <v>3.15995</v>
+        <v>4.1646</v>
       </c>
       <c r="C34" t="n">
-        <v>3159.95</v>
+        <v>4164.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02421</v>
+        <v>1.02452</v>
       </c>
       <c r="B35" t="n">
-        <v>3.17544</v>
+        <v>4.17171</v>
       </c>
       <c r="C35" t="n">
-        <v>3175.44</v>
+        <v>4171.71</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05518</v>
+        <v>1.05589</v>
       </c>
       <c r="B36" t="n">
-        <v>3.19083</v>
+        <v>4.17867</v>
       </c>
       <c r="C36" t="n">
-        <v>3190.83</v>
+        <v>4178.67</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08614</v>
+        <v>1.08728</v>
       </c>
       <c r="B37" t="n">
-        <v>3.20565</v>
+        <v>4.18553</v>
       </c>
       <c r="C37" t="n">
-        <v>3205.65</v>
+        <v>4185.53</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11711</v>
+        <v>1.11866</v>
       </c>
       <c r="B38" t="n">
-        <v>3.22013</v>
+        <v>4.19224</v>
       </c>
       <c r="C38" t="n">
-        <v>3220.13</v>
+        <v>4192.24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14808</v>
+        <v>1.15004</v>
       </c>
       <c r="B39" t="n">
-        <v>3.23449</v>
+        <v>4.19882</v>
       </c>
       <c r="C39" t="n">
-        <v>3234.49</v>
+        <v>4198.82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17905</v>
+        <v>1.18142</v>
       </c>
       <c r="B40" t="n">
-        <v>3.24844</v>
+        <v>4.20526</v>
       </c>
       <c r="C40" t="n">
-        <v>3248.44</v>
+        <v>4205.26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21002</v>
+        <v>1.2128</v>
       </c>
       <c r="B41" t="n">
-        <v>3.26218</v>
+        <v>4.21158</v>
       </c>
       <c r="C41" t="n">
-        <v>3262.18</v>
+        <v>4211.58</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24098</v>
+        <v>1.24418</v>
       </c>
       <c r="B42" t="n">
-        <v>3.27583</v>
+        <v>4.21779</v>
       </c>
       <c r="C42" t="n">
-        <v>3275.83</v>
+        <v>4217.79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27195</v>
+        <v>1.27556</v>
       </c>
       <c r="B43" t="n">
-        <v>3.28915</v>
+        <v>4.22391</v>
       </c>
       <c r="C43" t="n">
-        <v>3289.15</v>
+        <v>4223.91</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30292</v>
+        <v>1.30694</v>
       </c>
       <c r="B44" t="n">
-        <v>3.30238</v>
+        <v>4.22992</v>
       </c>
       <c r="C44" t="n">
-        <v>3302.38</v>
+        <v>4229.92</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33389</v>
+        <v>1.33832</v>
       </c>
       <c r="B45" t="n">
-        <v>3.31537</v>
+        <v>4.235819999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>3315.37</v>
+        <v>4235.82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36485</v>
+        <v>1.36932</v>
       </c>
       <c r="B46" t="n">
-        <v>3.32813</v>
+        <v>4.24162</v>
       </c>
       <c r="C46" t="n">
-        <v>3328.13</v>
+        <v>4241.62</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39582</v>
+        <v>1.40029</v>
       </c>
       <c r="B47" t="n">
-        <v>3.34082</v>
+        <v>4.2473</v>
       </c>
       <c r="C47" t="n">
-        <v>3340.82</v>
+        <v>4247.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42679</v>
+        <v>1.43126</v>
       </c>
       <c r="B48" t="n">
-        <v>3.35317</v>
+        <v>4.25288</v>
       </c>
       <c r="C48" t="n">
-        <v>3353.17</v>
+        <v>4252.88</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45775</v>
+        <v>1.46222</v>
       </c>
       <c r="B49" t="n">
-        <v>3.36541</v>
+        <v>4.25834</v>
       </c>
       <c r="C49" t="n">
-        <v>3365.41</v>
+        <v>4258.34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48873</v>
+        <v>1.49319</v>
       </c>
       <c r="B50" t="n">
-        <v>3.37744</v>
+        <v>4.26374</v>
       </c>
       <c r="C50" t="n">
-        <v>3377.44</v>
+        <v>4263.74</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51969</v>
+        <v>1.52416</v>
       </c>
       <c r="B51" t="n">
-        <v>3.38934</v>
+        <v>4.26907</v>
       </c>
       <c r="C51" t="n">
-        <v>3389.34</v>
+        <v>4269.07</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55066</v>
+        <v>1.55513</v>
       </c>
       <c r="B52" t="n">
-        <v>3.40111</v>
+        <v>4.2743</v>
       </c>
       <c r="C52" t="n">
-        <v>3401.11</v>
+        <v>4274.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58163</v>
+        <v>1.58609</v>
       </c>
       <c r="B53" t="n">
-        <v>3.41274</v>
+        <v>4.27946</v>
       </c>
       <c r="C53" t="n">
-        <v>3412.74</v>
+        <v>4279.46</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61259</v>
+        <v>1.61706</v>
       </c>
       <c r="B54" t="n">
-        <v>3.42423</v>
+        <v>4.28453</v>
       </c>
       <c r="C54" t="n">
-        <v>3424.23</v>
+        <v>4284.53</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64356</v>
+        <v>1.64803</v>
       </c>
       <c r="B55" t="n">
-        <v>3.43558</v>
+        <v>4.28952</v>
       </c>
       <c r="C55" t="n">
-        <v>3435.58</v>
+        <v>4289.52</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67453</v>
+        <v>1.67896</v>
       </c>
       <c r="B56" t="n">
-        <v>3.4468</v>
+        <v>4.294420000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>3446.8</v>
+        <v>4294.42</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.7055</v>
+        <v>1.70951</v>
       </c>
       <c r="B57" t="n">
-        <v>3.45784</v>
+        <v>4.29922</v>
       </c>
       <c r="C57" t="n">
-        <v>3457.84</v>
+        <v>4299.22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73647</v>
+        <v>1.74006</v>
       </c>
       <c r="B58" t="n">
-        <v>3.46877</v>
+        <v>4.30396</v>
       </c>
       <c r="C58" t="n">
-        <v>3468.77</v>
+        <v>4303.96</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76743</v>
+        <v>1.77062</v>
       </c>
       <c r="B59" t="n">
-        <v>3.47959</v>
+        <v>4.30863</v>
       </c>
       <c r="C59" t="n">
-        <v>3479.59</v>
+        <v>4308.63</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.7984</v>
+        <v>1.80118</v>
       </c>
       <c r="B60" t="n">
-        <v>3.49025</v>
+        <v>4.31323</v>
       </c>
       <c r="C60" t="n">
-        <v>3490.25</v>
+        <v>4313.23</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82937</v>
+        <v>1.83173</v>
       </c>
       <c r="B61" t="n">
-        <v>3.50086</v>
+        <v>4.31777</v>
       </c>
       <c r="C61" t="n">
-        <v>3500.86</v>
+        <v>4317.77</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86034</v>
+        <v>1.86229</v>
       </c>
       <c r="B62" t="n">
-        <v>3.51131</v>
+        <v>4.322229999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>3511.31</v>
+        <v>4322.23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89131</v>
+        <v>1.89284</v>
       </c>
       <c r="B63" t="n">
-        <v>3.52168</v>
+        <v>4.326630000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>3521.68</v>
+        <v>4326.63</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92227</v>
+        <v>1.92405</v>
       </c>
       <c r="B64" t="n">
-        <v>3.53191</v>
+        <v>4.331060000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>3531.91</v>
+        <v>4331.06</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95324</v>
+        <v>1.95563</v>
       </c>
       <c r="B65" t="n">
-        <v>3.54201</v>
+        <v>4.33548</v>
       </c>
       <c r="C65" t="n">
-        <v>3542.01</v>
+        <v>4335.48</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98421</v>
+        <v>1.9872</v>
       </c>
       <c r="B66" t="n">
-        <v>3.55206</v>
+        <v>4.33983</v>
       </c>
       <c r="C66" t="n">
-        <v>3552.06</v>
+        <v>4339.83</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.0153</v>
+        <v>2.01877</v>
       </c>
       <c r="B67" t="n">
-        <v>3.56195</v>
+        <v>4.34413</v>
       </c>
       <c r="C67" t="n">
-        <v>3561.95</v>
+        <v>4344.13</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04668</v>
+        <v>2.05035</v>
       </c>
       <c r="B68" t="n">
-        <v>3.57176</v>
+        <v>4.34836</v>
       </c>
       <c r="C68" t="n">
-        <v>3571.76</v>
+        <v>4348.36</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07806</v>
+        <v>2.08192</v>
       </c>
       <c r="B69" t="n">
-        <v>3.58152</v>
+        <v>4.35253</v>
       </c>
       <c r="C69" t="n">
-        <v>3581.52</v>
+        <v>4352.53</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10944</v>
+        <v>2.1135</v>
       </c>
       <c r="B70" t="n">
-        <v>3.59113</v>
+        <v>4.356640000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>3591.13</v>
+        <v>4356.64</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14083</v>
+        <v>2.14507</v>
       </c>
       <c r="B71" t="n">
-        <v>3.60071</v>
+        <v>4.3607</v>
       </c>
       <c r="C71" t="n">
-        <v>3600.71</v>
+        <v>4360.7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.1722</v>
+        <v>2.17664</v>
       </c>
       <c r="B72" t="n">
-        <v>3.61013</v>
+        <v>4.36472</v>
       </c>
       <c r="C72" t="n">
-        <v>3610.13</v>
+        <v>4364.72</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20284</v>
+        <v>2.20822</v>
       </c>
       <c r="B73" t="n">
-        <v>3.61948</v>
+        <v>4.36864</v>
       </c>
       <c r="C73" t="n">
-        <v>3619.48</v>
+        <v>4368.64</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.2334</v>
+        <v>2.23952</v>
       </c>
       <c r="B74" t="n">
-        <v>3.62876</v>
+        <v>4.372520000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>3628.76</v>
+        <v>4372.52</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26395</v>
+        <v>2.27024</v>
       </c>
       <c r="B75" t="n">
-        <v>3.63795</v>
+        <v>4.37636</v>
       </c>
       <c r="C75" t="n">
-        <v>3637.95</v>
+        <v>4376.36</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29451</v>
+        <v>2.30097</v>
       </c>
       <c r="B76" t="n">
-        <v>3.64704</v>
+        <v>4.38013</v>
       </c>
       <c r="C76" t="n">
-        <v>3647.04</v>
+        <v>4380.13</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32506</v>
+        <v>2.33169</v>
       </c>
       <c r="B77" t="n">
-        <v>3.65606</v>
+        <v>4.383859999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>3656.06</v>
+        <v>4383.86</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35562</v>
+        <v>2.3624</v>
       </c>
       <c r="B78" t="n">
-        <v>3.66498</v>
+        <v>4.38753</v>
       </c>
       <c r="C78" t="n">
-        <v>3664.98</v>
+        <v>4387.53</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38617</v>
+        <v>2.39312</v>
       </c>
       <c r="B79" t="n">
-        <v>3.6738</v>
+        <v>4.39115</v>
       </c>
       <c r="C79" t="n">
-        <v>3673.8</v>
+        <v>4391.15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41673</v>
+        <v>2.42385</v>
       </c>
       <c r="B80" t="n">
-        <v>3.68255</v>
+        <v>4.39472</v>
       </c>
       <c r="C80" t="n">
-        <v>3682.55</v>
+        <v>4394.72</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44817</v>
+        <v>2.45457</v>
       </c>
       <c r="B81" t="n">
-        <v>3.69147</v>
+        <v>4.398239999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>3691.47</v>
+        <v>4398.24</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47974</v>
+        <v>2.48528</v>
       </c>
       <c r="B82" t="n">
-        <v>3.70034</v>
+        <v>4.40171</v>
       </c>
       <c r="C82" t="n">
-        <v>3700.34</v>
+        <v>4401.71</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51132</v>
+        <v>2.51601</v>
       </c>
       <c r="B83" t="n">
-        <v>3.70914</v>
+        <v>4.40513</v>
       </c>
       <c r="C83" t="n">
-        <v>3709.14</v>
+        <v>4405.13</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54289</v>
+        <v>2.54673</v>
       </c>
       <c r="B84" t="n">
-        <v>3.71785</v>
+        <v>4.408510000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>3717.85</v>
+        <v>4408.51</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57447</v>
+        <v>2.57744</v>
       </c>
       <c r="B85" t="n">
-        <v>3.72649</v>
+        <v>4.41183</v>
       </c>
       <c r="C85" t="n">
-        <v>3726.49</v>
+        <v>4411.83</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60604</v>
+        <v>2.60816</v>
       </c>
       <c r="B86" t="n">
-        <v>3.73505</v>
+        <v>4.41512</v>
       </c>
       <c r="C86" t="n">
-        <v>3735.05</v>
+        <v>4415.12</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63761</v>
+        <v>2.63889</v>
       </c>
       <c r="B87" t="n">
-        <v>3.74353</v>
+        <v>4.41835</v>
       </c>
       <c r="C87" t="n">
-        <v>3743.53</v>
+        <v>4418.35</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66919</v>
+        <v>2.66961</v>
       </c>
       <c r="B88" t="n">
-        <v>3.75194</v>
+        <v>4.42153</v>
       </c>
       <c r="C88" t="n">
-        <v>3751.94</v>
+        <v>4421.53</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70076</v>
+        <v>2.70032</v>
       </c>
       <c r="B89" t="n">
-        <v>3.76023</v>
+        <v>4.42467</v>
       </c>
       <c r="C89" t="n">
-        <v>3760.23</v>
+        <v>4424.67</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73233</v>
+        <v>2.73105</v>
       </c>
       <c r="B90" t="n">
-        <v>3.76848</v>
+        <v>4.427770000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>3768.48</v>
+        <v>4427.77</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76391</v>
+        <v>2.76177</v>
       </c>
       <c r="B91" t="n">
-        <v>3.77667</v>
+        <v>4.43083</v>
       </c>
       <c r="C91" t="n">
-        <v>3776.67</v>
+        <v>4430.83</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79548</v>
+        <v>2.79248</v>
       </c>
       <c r="B92" t="n">
-        <v>3.78478</v>
+        <v>4.433850000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>3784.78</v>
+        <v>4433.85</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82706</v>
+        <v>2.8232</v>
       </c>
       <c r="B93" t="n">
-        <v>3.79282</v>
+        <v>4.43682</v>
       </c>
       <c r="C93" t="n">
-        <v>3792.82</v>
+        <v>4436.82</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85863</v>
+        <v>2.85393</v>
       </c>
       <c r="B94" t="n">
-        <v>3.8008</v>
+        <v>4.43975</v>
       </c>
       <c r="C94" t="n">
-        <v>3800.8</v>
+        <v>4439.75</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.8902</v>
+        <v>2.88465</v>
       </c>
       <c r="B95" t="n">
-        <v>3.80876</v>
+        <v>4.442640000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>3808.76</v>
+        <v>4442.64</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92177</v>
+        <v>2.91536</v>
       </c>
       <c r="B96" t="n">
-        <v>3.8166</v>
+        <v>4.44547</v>
       </c>
       <c r="C96" t="n">
-        <v>3816.6</v>
+        <v>4445.47</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95335</v>
+        <v>2.94608</v>
       </c>
       <c r="B97" t="n">
-        <v>3.82439</v>
+        <v>4.44828</v>
       </c>
       <c r="C97" t="n">
-        <v>3824.39</v>
+        <v>4448.28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98492</v>
+        <v>2.97681</v>
       </c>
       <c r="B98" t="n">
-        <v>3.8321</v>
+        <v>4.45105</v>
       </c>
       <c r="C98" t="n">
-        <v>3832.1</v>
+        <v>4451.05</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01649</v>
+        <v>3.00715</v>
       </c>
       <c r="B99" t="n">
-        <v>3.83974</v>
+        <v>4.45378</v>
       </c>
       <c r="C99" t="n">
-        <v>3839.74</v>
+        <v>4453.78</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04806</v>
+        <v>3.03701</v>
       </c>
       <c r="B100" t="n">
-        <v>3.8473</v>
+        <v>4.45648</v>
       </c>
       <c r="C100" t="n">
-        <v>3847.3</v>
+        <v>4456.48</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07964</v>
+        <v>3.06688</v>
       </c>
       <c r="B101" t="n">
-        <v>3.85482</v>
+        <v>4.45915</v>
       </c>
       <c r="C101" t="n">
-        <v>3854.82</v>
+        <v>4459.15</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.11121</v>
+        <v>3.09675</v>
       </c>
       <c r="B102" t="n">
-        <v>3.8623</v>
+        <v>4.46177</v>
       </c>
       <c r="C102" t="n">
-        <v>3862.3</v>
+        <v>4461.77</v>
       </c>
     </row>
   </sheetData>
